--- a/form2/expansao_atualizado_form2.xlsx
+++ b/form2/expansao_atualizado_form2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expansao" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="expansao" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form2/expansao_atualizado_form2.xlsx
+++ b/form2/expansao_atualizado_form2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="expansao" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expansao" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -116,6 +116,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00808080"/>
         <bgColor rgb="00808080"/>
       </patternFill>
@@ -147,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +179,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -185,7 +194,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,7 +796,7 @@
           <t>Vagner Perseti Alves</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>
@@ -820,7 +829,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -865,7 +874,7 @@
       <c r="K6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -955,7 +964,7 @@
       <c r="K8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="A9" s="11" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1000,7 +1009,7 @@
       <c r="K9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1045,7 +1054,7 @@
       <c r="K10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+      <c r="A11" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1090,7 +1099,7 @@
       <c r="K11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1135,7 +1144,7 @@
       <c r="K12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="inlineStr">
+      <c r="A13" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1180,7 +1189,7 @@
       <c r="K13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1225,7 +1234,7 @@
       <c r="K14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="A15" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1270,7 +1279,7 @@
       <c r="K15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="inlineStr">
+      <c r="A16" s="10" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1315,7 +1324,7 @@
       <c r="K16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1409,7 +1418,7 @@
       <c r="K18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="inlineStr">
+      <c r="A19" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -1425,7 +1434,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="13" t="inlineStr">
+      <c r="E19" s="14" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -1491,7 +1500,7 @@
       <c r="K20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="inlineStr">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1536,7 +1545,7 @@
       <c r="K21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="inlineStr">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1556,7 +1565,7 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E22" s="9" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>
@@ -1581,7 +1590,7 @@
       <c r="K22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="inlineStr">
+      <c r="A23" s="10" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1626,7 +1635,7 @@
       <c r="K23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="inlineStr">
+      <c r="A24" s="10" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1671,7 +1680,7 @@
       <c r="K24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="inlineStr">
+      <c r="A25" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -1826,7 +1835,7 @@
           <t>Letícia Diniz</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E28" s="9" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>
@@ -1851,7 +1860,7 @@
       <c r="K28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="inlineStr">
+      <c r="A29" s="11" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1896,7 +1905,7 @@
       <c r="K29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="inlineStr">
+      <c r="A30" s="11" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1941,7 +1950,7 @@
       <c r="K30" s="3" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="inlineStr">
+      <c r="A31" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1986,7 +1995,7 @@
       <c r="K31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="inlineStr">
+      <c r="A32" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2031,7 +2040,7 @@
       <c r="K32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="inlineStr">
+      <c r="A33" s="11" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2076,7 +2085,7 @@
       <c r="K33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="inlineStr">
+      <c r="A34" s="11" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2096,7 +2105,7 @@
           <t>Rayra Emanuelly da Costa</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="E34" s="9" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>
@@ -2129,7 +2138,7 @@
       <c r="K34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="inlineStr">
+      <c r="A35" s="10" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2174,7 +2183,7 @@
       <c r="K35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="inlineStr">
+      <c r="A36" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2219,7 +2228,7 @@
       <c r="K36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="inlineStr">
+      <c r="A37" s="11" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2284,7 +2293,7 @@
           <t>Anderson Batista Siqueira</t>
         </is>
       </c>
-      <c r="E38" s="13" t="inlineStr">
+      <c r="E38" s="14" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -2305,7 +2314,7 @@
       <c r="K38" s="3" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="inlineStr">
+      <c r="A39" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2399,7 +2408,7 @@
       <c r="K40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="inlineStr">
+      <c r="A41" s="11" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2444,7 +2453,7 @@
       <c r="K41" s="3" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="inlineStr">
+      <c r="A42" s="10" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2489,7 +2498,7 @@
       <c r="K42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="inlineStr">
+      <c r="A43" s="10" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2534,7 +2543,7 @@
       <c r="K43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="12" t="inlineStr">
+      <c r="A44" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2624,7 +2633,7 @@
       <c r="K45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="inlineStr">
+      <c r="A46" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2644,7 +2653,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E46" s="13" t="inlineStr">
+      <c r="E46" s="14" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -2665,7 +2674,7 @@
       <c r="K46" s="3" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="inlineStr">
+      <c r="A47" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2685,7 +2694,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E47" s="13" t="inlineStr">
+      <c r="E47" s="14" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -2706,7 +2715,7 @@
       <c r="K47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="inlineStr">
+      <c r="A48" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2751,7 +2760,7 @@
       <c r="K48" s="3" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="inlineStr">
+      <c r="A49" s="10" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2796,7 +2805,7 @@
       <c r="K49" s="3" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="12" t="inlineStr">
+      <c r="A50" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2906,7 +2915,7 @@
           <t>Maristela da Silva de Oliveira Melo</t>
         </is>
       </c>
-      <c r="E52" s="13" t="inlineStr">
+      <c r="E52" s="14" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -2972,7 +2981,7 @@
       <c r="K53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="12" t="inlineStr">
+      <c r="A54" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2988,7 +2997,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
-      <c r="E54" s="13" t="inlineStr">
+      <c r="E54" s="14" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -3029,7 +3038,7 @@
           <t>Eliane Stefani Dantas Dias</t>
         </is>
       </c>
-      <c r="E55" s="13" t="inlineStr">
+      <c r="E55" s="14" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -3050,7 +3059,7 @@
       <c r="K55" s="3" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="10" t="inlineStr">
+      <c r="A56" s="11" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -3095,7 +3104,7 @@
       <c r="K56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="inlineStr">
+      <c r="A57" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -3140,7 +3149,7 @@
       <c r="K57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="inlineStr">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -3160,7 +3169,7 @@
           <t>Adriano Campos Chagas</t>
         </is>
       </c>
-      <c r="E58" s="6" t="inlineStr">
+      <c r="E58" s="9" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>

--- a/form2/expansao_atualizado_form2.xlsx
+++ b/form2/expansao_atualizado_form2.xlsx
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -104,20 +104,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF6400"/>
-        <bgColor rgb="00FF6400"/>
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00006400"/>
         <bgColor rgb="00006400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
     <fill>
@@ -153,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -179,9 +173,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -194,7 +185,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,10 +654,14 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n"/>
+          <t>Envio Duplicado</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>01/04/2025, 08/04/2025</t>
+        </is>
+      </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -796,7 +791,7 @@
           <t>Vagner Perseti Alves</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>
@@ -829,7 +824,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -874,7 +869,7 @@
       <c r="K6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -964,7 +959,7 @@
       <c r="K8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1009,7 +1004,7 @@
       <c r="K9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="inlineStr">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1054,7 +1049,7 @@
       <c r="K10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="inlineStr">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1099,7 +1094,7 @@
       <c r="K11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="inlineStr">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1144,7 +1139,7 @@
       <c r="K12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="inlineStr">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1189,7 +1184,7 @@
       <c r="K13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="inlineStr">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1234,7 +1229,7 @@
       <c r="K14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="inlineStr">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1279,7 +1274,7 @@
       <c r="K15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="inlineStr">
+      <c r="A16" s="9" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1324,7 +1319,7 @@
       <c r="K16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="inlineStr">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1418,7 +1413,7 @@
       <c r="K18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="inlineStr">
+      <c r="A19" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -1434,7 +1429,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="14" t="inlineStr">
+      <c r="E19" s="13" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -1500,7 +1495,7 @@
       <c r="K20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1520,14 +1515,14 @@
           <t>Augusto Cesar Nunes</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>26/03/2025, 26/03/2025</t>
         </is>
       </c>
       <c r="G21" s="5" t="inlineStr">
@@ -1545,7 +1540,7 @@
       <c r="K21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1565,14 +1560,14 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E22" s="9" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>12/03/2025, 24/02/2025, 07/02/2025</t>
+          <t>07/02/2025, 24/02/2025, 12/03/2025</t>
         </is>
       </c>
       <c r="G22" s="5" t="inlineStr">
@@ -1590,7 +1585,7 @@
       <c r="K22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1635,7 +1630,7 @@
       <c r="K23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1680,7 +1675,7 @@
       <c r="K24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -1700,14 +1695,14 @@
           <t>Marcos Alexandre Cordeiro Esmocoviski</t>
         </is>
       </c>
-      <c r="E25" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>27/03/2025</t>
+          <t>26/03/2025, 27/03/2025</t>
         </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
@@ -1835,14 +1830,14 @@
           <t>Letícia Diniz</t>
         </is>
       </c>
-      <c r="E28" s="9" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>07/02/2025, 06/02/2025</t>
+          <t>06/02/2025, 07/02/2025</t>
         </is>
       </c>
       <c r="G28" s="7" t="inlineStr">
@@ -1860,7 +1855,7 @@
       <c r="K28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1905,7 +1900,7 @@
       <c r="K29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+      <c r="A30" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1950,7 +1945,7 @@
       <c r="K30" s="3" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="inlineStr">
+      <c r="A31" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1995,7 +1990,7 @@
       <c r="K31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="inlineStr">
+      <c r="A32" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2040,7 +2035,7 @@
       <c r="K32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="inlineStr">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2085,7 +2080,7 @@
       <c r="K33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="inlineStr">
+      <c r="A34" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2105,14 +2100,14 @@
           <t>Rayra Emanuelly da Costa</t>
         </is>
       </c>
-      <c r="E34" s="9" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>04/02/2025, 05/02/2025</t>
+          <t>05/02/2025, 04/02/2025</t>
         </is>
       </c>
       <c r="G34" s="7" t="inlineStr">
@@ -2138,7 +2133,7 @@
       <c r="K34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="inlineStr">
+      <c r="A35" s="9" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2183,7 +2178,7 @@
       <c r="K35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="inlineStr">
+      <c r="A36" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2203,14 +2198,14 @@
           <t>Mariangela Lurdes de Borba</t>
         </is>
       </c>
-      <c r="E36" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>06/02/2025</t>
+          <t>06/02/2025, 08/04/2025</t>
         </is>
       </c>
       <c r="G36" s="7" t="inlineStr">
@@ -2228,7 +2223,7 @@
       <c r="K36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="inlineStr">
+      <c r="A37" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2293,12 +2288,16 @@
           <t>Anderson Batista Siqueira</t>
         </is>
       </c>
-      <c r="E38" s="14" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="n"/>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
       <c r="G38" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2314,7 +2313,7 @@
       <c r="K38" s="3" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="inlineStr">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2408,7 +2407,7 @@
       <c r="K40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="inlineStr">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2428,14 +2427,14 @@
           <t>Gustavo Henrique de Andrade</t>
         </is>
       </c>
-      <c r="E41" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>27/03/2025</t>
+          <t>06/05/2025, 27/03/2025</t>
         </is>
       </c>
       <c r="G41" s="7" t="inlineStr">
@@ -2453,7 +2452,7 @@
       <c r="K41" s="3" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="inlineStr">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2498,7 +2497,7 @@
       <c r="K42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="inlineStr">
+      <c r="A43" s="9" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2543,7 +2542,7 @@
       <c r="K43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="inlineStr">
+      <c r="A44" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2633,7 +2632,7 @@
       <c r="K45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="12" t="inlineStr">
+      <c r="A46" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2653,7 +2652,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E46" s="14" t="inlineStr">
+      <c r="E46" s="13" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -2674,7 +2673,7 @@
       <c r="K46" s="3" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="12" t="inlineStr">
+      <c r="A47" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2694,7 +2693,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E47" s="14" t="inlineStr">
+      <c r="E47" s="13" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -2715,7 +2714,7 @@
       <c r="K47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="12" t="inlineStr">
+      <c r="A48" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2760,7 +2759,7 @@
       <c r="K48" s="3" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="10" t="inlineStr">
+      <c r="A49" s="9" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2805,7 +2804,7 @@
       <c r="K49" s="3" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="inlineStr">
+      <c r="A50" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2825,14 +2824,14 @@
           <t>Vilmar Ribeiro</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>10/02/2025</t>
+          <t>10/02/2025, 10/04/2025</t>
         </is>
       </c>
       <c r="G50" s="7" t="inlineStr">
@@ -2915,12 +2914,16 @@
           <t>Maristela da Silva de Oliveira Melo</t>
         </is>
       </c>
-      <c r="E52" s="14" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F52" s="3" t="n"/>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
       <c r="G52" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2981,7 +2984,7 @@
       <c r="K53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="inlineStr">
+      <c r="A54" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2997,7 +3000,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
-      <c r="E54" s="14" t="inlineStr">
+      <c r="E54" s="13" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -3038,12 +3041,16 @@
           <t>Eliane Stefani Dantas Dias</t>
         </is>
       </c>
-      <c r="E55" s="14" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="n"/>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>28/03/2025, 28/03/2025</t>
+        </is>
+      </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3059,7 +3066,7 @@
       <c r="K55" s="3" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="inlineStr">
+      <c r="A56" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -3104,7 +3111,7 @@
       <c r="K56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="12" t="inlineStr">
+      <c r="A57" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -3149,7 +3156,7 @@
       <c r="K57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="12" t="inlineStr">
+      <c r="A58" s="11" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -3169,7 +3176,7 @@
           <t>Adriano Campos Chagas</t>
         </is>
       </c>
-      <c r="E58" s="9" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>

--- a/form2/expansao_atualizado_form2.xlsx
+++ b/form2/expansao_atualizado_form2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expansao" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="expansao" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -565,7 +565,7 @@
     <col width="31" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
     <col width="39" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="80" customWidth="1" min="8" max="8"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
